--- a/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEAA48D-D1E4-49E5-84A9-AC007C10F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AB7A70-B56C-4B42-8A11-B48B236F64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7A9D798B-817E-452D-929F-F6929DBC8DE1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DA3BAAE0-EC7D-43F2-A30D-7701321C14DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,171 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
@@ -169,148 +313,43 @@
     <t>54,73%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -394,48 +433,129 @@
     <t>54,5%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
     <t>5,23%</t>
   </si>
   <si>
@@ -517,124 +637,37 @@
     <t>44,54%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>4,6%</t>
@@ -715,42 +748,153 @@
     <t>44,6%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>4,47%</t>
   </si>
   <si>
@@ -832,148 +976,34 @@
     <t>55,49%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>5,19%</t>
@@ -1046,36 +1076,6 @@
   </si>
   <si>
     <t>56,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28BD7D-8F63-42C0-84A2-949A00DF6BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C3673-476E-4C59-B595-238F946E40BB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>11414</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1872,34 +1872,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>15243</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>41</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26657</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,49 +1908,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>109790</v>
+        <v>578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>97750</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>207541</v>
+        <v>578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,49 +1959,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>125359</v>
+        <v>1455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>125102</v>
+        <v>1391</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>375</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>250461</v>
+        <v>2846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,49 +2010,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>24123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>726</v>
+        <v>22618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>726</v>
+        <v>46740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2061,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>3462</v>
+        <v>32913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>2943</v>
+        <v>24873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>6405</v>
+        <v>57786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,102 +2112,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250026</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>491790</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1455</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1391</v>
+        <v>726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>2846</v>
+        <v>726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2216,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>24123</v>
+        <v>3462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>22618</v>
+        <v>2943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>46740</v>
+        <v>6405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2267,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>32913</v>
+        <v>11414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>24873</v>
+        <v>15243</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>57786</v>
+        <v>26657</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2318,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>109790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>97750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>207541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,46 +2369,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="D20" s="7">
-        <v>578</v>
+        <v>125359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="7">
+        <v>186</v>
+      </c>
+      <c r="I20" s="7">
+        <v>125102</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>375</v>
+      </c>
+      <c r="N20" s="7">
+        <v>250461</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>578</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>90</v>
@@ -2420,49 +2420,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>491790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,49 +2473,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>726</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="7">
-        <v>25</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16633</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>726</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="7">
-        <v>45</v>
-      </c>
-      <c r="N22" s="7">
-        <v>29503</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,49 +2524,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>133913</v>
+        <v>4040</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2943</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6983</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="7">
-        <v>179</v>
-      </c>
-      <c r="I23" s="7">
-        <v>120368</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="7">
-        <v>378</v>
-      </c>
-      <c r="N23" s="7">
-        <v>254281</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,49 +2575,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>158272</v>
+        <v>12870</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16633</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>45</v>
+      </c>
+      <c r="N24" s="7">
+        <v>29503</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="7">
-        <v>223</v>
-      </c>
-      <c r="I24" s="7">
-        <v>149975</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="7">
-        <v>463</v>
-      </c>
-      <c r="N24" s="7">
-        <v>308248</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2626,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>133913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120368</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>726</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>378</v>
+      </c>
+      <c r="N25" s="7">
+        <v>254281</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>726</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,40 +2677,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="D26" s="7">
-        <v>4040</v>
+        <v>158272</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>223</v>
+      </c>
+      <c r="I26" s="7">
+        <v>149975</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2943</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>127</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="N26" s="7">
-        <v>6983</v>
+        <v>308248</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>128</v>
@@ -2734,13 +2734,13 @@
         <v>309095</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -2749,13 +2749,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -2764,13 +2764,13 @@
         <v>599741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4D6DF7-965A-4DCA-9571-44D3BD11FA8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D9A250-A3A8-4E55-8086-BFDBFC8D3A0B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3179,49 +3179,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13624</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7">
-        <v>11763</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="7">
-        <v>37</v>
-      </c>
-      <c r="N10" s="7">
-        <v>25387</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,49 +3230,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>120418</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>142727</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>263145</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3281,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>121207</v>
+        <v>1418</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H12" s="7">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>83461</v>
+        <v>2318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M12" s="7">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>204668</v>
+        <v>3736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,49 +3332,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>823</v>
+        <v>35867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>594</v>
+        <v>38212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>1417</v>
+        <v>74079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3383,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>4519</v>
+        <v>28889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>3560</v>
+        <v>28163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7">
-        <v>8079</v>
+        <v>57052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,102 +3434,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>260592</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242105</v>
+        <v>68693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>502696</v>
+        <v>134867</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>823</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>594</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1418</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2318</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
       <c r="N16" s="7">
-        <v>3736</v>
+        <v>1417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,49 +3538,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>35867</v>
+        <v>4519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>38212</v>
+        <v>3560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>74079</v>
+        <v>8079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3589,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>28889</v>
+        <v>13624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>28163</v>
+        <v>11763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7">
-        <v>57052</v>
+        <v>25387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3640,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>120418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>142727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>263145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3691,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>121207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="7">
+        <v>119</v>
+      </c>
+      <c r="I20" s="7">
+        <v>83461</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="7">
+        <v>300</v>
+      </c>
+      <c r="N20" s="7">
+        <v>204668</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +3742,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>383</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>260592</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68693</v>
+        <v>242105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>134867</v>
+        <v>502696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,49 +3795,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>15042</v>
+        <v>823</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>594</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="7">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14081</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1417</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" s="7">
-        <v>42</v>
-      </c>
-      <c r="N22" s="7">
-        <v>29123</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +3846,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>156285</v>
+        <v>4519</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3560</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8079</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="H23" s="7">
-        <v>257</v>
-      </c>
-      <c r="I23" s="7">
-        <v>180939</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M23" s="7">
-        <v>481</v>
-      </c>
-      <c r="N23" s="7">
-        <v>337223</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,49 +3897,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>150097</v>
+        <v>15042</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14081</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>29123</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="7">
-        <v>159</v>
-      </c>
-      <c r="I24" s="7">
-        <v>111624</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M24" s="7">
-        <v>380</v>
-      </c>
-      <c r="N24" s="7">
-        <v>261720</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +3948,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D25" s="7">
-        <v>823</v>
+        <v>156285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="7">
+        <v>257</v>
+      </c>
+      <c r="I25" s="7">
+        <v>180939</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" s="7">
+        <v>481</v>
+      </c>
+      <c r="N25" s="7">
+        <v>337223</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>594</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1417</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,43 +3999,43 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="D26" s="7">
-        <v>4519</v>
+        <v>150097</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="7">
+        <v>159</v>
+      </c>
+      <c r="I26" s="7">
+        <v>111624</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3560</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>380</v>
+      </c>
+      <c r="N26" s="7">
+        <v>261720</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="M26" s="7">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8079</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>234</v>
@@ -4056,13 +4056,13 @@
         <v>326766</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4071,13 +4071,13 @@
         <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4086,13 +4086,13 @@
         <v>637563</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4111,7 +4111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BCEC4E-0486-42B5-B0FC-A670CDABD2B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4628FD17-4629-41BC-B895-6EF4B393E569}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4501,49 +4501,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>12208</v>
+        <v>575</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>575</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15940</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M10" s="7">
-        <v>41</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28148</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,49 +4552,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>109183</v>
+        <v>618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>110035</v>
+        <v>583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>219217</v>
+        <v>1201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,49 +4603,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>149616</v>
+        <v>5920</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>127489</v>
+        <v>3559</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>277105</v>
+        <v>9479</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,49 +4654,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>891</v>
+        <v>23915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>1653</v>
+        <v>34975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>2545</v>
+        <v>58891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +4705,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>1438</v>
+        <v>44837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>3522</v>
+        <v>47938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="N14" s="7">
-        <v>4961</v>
+        <v>92775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,102 +4756,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5920</v>
+        <v>891</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1653</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2545</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3559</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M16" s="7">
-        <v>14</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9479</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,49 +4860,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>23915</v>
+        <v>1438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>34975</v>
+        <v>3522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>58891</v>
+        <v>4961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,49 +4911,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>44837</v>
+        <v>12208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>47938</v>
+        <v>15940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>92775</v>
+        <v>28148</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,49 +4962,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7">
-        <v>575</v>
+        <v>109183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>110035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="N19" s="7">
-        <v>575</v>
+        <v>219217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,46 +5013,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D20" s="7">
-        <v>618</v>
+        <v>149616</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="7">
+        <v>174</v>
+      </c>
+      <c r="I20" s="7">
+        <v>127489</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>583</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>374</v>
+      </c>
+      <c r="N20" s="7">
+        <v>277105</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1201</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>311</v>
@@ -5064,49 +5064,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,46 +5117,46 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>18129</v>
+        <v>1467</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1653</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3120</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="7">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19498</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M22" s="7">
-        <v>55</v>
-      </c>
-      <c r="N22" s="7">
-        <v>37627</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>201</v>
@@ -5168,49 +5168,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>133098</v>
+        <v>2056</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4105</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="7">
+        <v>9</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6162</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="H23" s="7">
-        <v>212</v>
-      </c>
-      <c r="I23" s="7">
-        <v>145010</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M23" s="7">
-        <v>396</v>
-      </c>
-      <c r="N23" s="7">
-        <v>278108</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5219,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>194453</v>
+        <v>18129</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="7">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19498</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M24" s="7">
+        <v>55</v>
+      </c>
+      <c r="N24" s="7">
+        <v>37627</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H24" s="7">
-        <v>245</v>
-      </c>
-      <c r="I24" s="7">
-        <v>175427</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="7">
-        <v>509</v>
-      </c>
-      <c r="N24" s="7">
-        <v>369880</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,49 +5270,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D25" s="7">
-        <v>1467</v>
+        <v>133098</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="7">
+        <v>212</v>
+      </c>
+      <c r="I25" s="7">
+        <v>145010</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="7">
+        <v>396</v>
+      </c>
+      <c r="N25" s="7">
+        <v>278108</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1653</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3120</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,46 +5321,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="D26" s="7">
-        <v>2056</v>
+        <v>194453</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>245</v>
+      </c>
+      <c r="I26" s="7">
+        <v>175427</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4105</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="L26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="7">
+        <v>509</v>
+      </c>
+      <c r="N26" s="7">
+        <v>369880</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="M26" s="7">
-        <v>9</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6162</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>345</v>
@@ -5378,13 +5378,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5393,13 +5393,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5408,13 +5408,13 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AB7A70-B56C-4B42-8A11-B48B236F64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DDC615-A224-4176-9D19-6F97F061BAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DA3BAAE0-EC7D-43F2-A30D-7701321C14DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84CAFDF7-438C-4EDC-83D9-00BDFED4B02B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="358">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,1015 +67,1051 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1182,39 +1218,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1266,7 +1302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1377,13 +1413,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1392,6 +1421,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1456,19 +1492,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C3673-476E-4C59-B595-238F946E40BB}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F2FF5-62D1-4539-99DD-2189BD290FEF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1859,47 +1915,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,49 +1958,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,49 +2003,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,49 +2048,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2093,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
-      </c>
-      <c r="N14" s="7">
-        <v>57786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,102 +2138,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>61889</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>726</v>
+        <v>60804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>726</v>
+        <v>122693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2236,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7">
-        <v>3462</v>
+        <v>56910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>2943</v>
+        <v>44088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="N17" s="7">
-        <v>6405</v>
+        <v>100998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2287,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>11414</v>
+        <v>3425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>15243</v>
+        <v>6166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>26657</v>
+        <v>9591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2338,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>109790</v>
+        <v>1257</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>97750</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>207541</v>
+        <v>1911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,49 +2389,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>125359</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>125102</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>250461</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,102 +2440,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250026</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>491790</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>96383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>726</v>
+        <v>89172</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="N22" s="7">
-        <v>726</v>
+        <v>185554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,49 +2544,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D23" s="7">
-        <v>4040</v>
+        <v>77003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>2943</v>
+        <v>76280</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="N23" s="7">
-        <v>6983</v>
+        <v>153283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,49 +2595,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>12870</v>
+        <v>9445</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>16633</v>
+        <v>10468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>29503</v>
+        <v>19913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2646,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>133913</v>
+        <v>2783</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>120368</v>
+        <v>2289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
-        <v>378</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>254281</v>
+        <v>5073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2697,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>158272</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>149975</v>
+        <v>726</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>308248</v>
+        <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,55 +2748,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>279</v>
+      </c>
+      <c r="D27" s="7">
+        <v>185614</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364549</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>240</v>
+      </c>
+      <c r="D28" s="7">
+        <v>158272</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>223</v>
+      </c>
+      <c r="I28" s="7">
+        <v>149975</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="7">
+        <v>463</v>
+      </c>
+      <c r="N28" s="7">
+        <v>308248</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133913</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
+        <v>179</v>
+      </c>
+      <c r="I29" s="7">
+        <v>120368</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>378</v>
+      </c>
+      <c r="N29" s="7">
+        <v>254281</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12870</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16633</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7">
+        <v>45</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29503</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4040</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2943</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6983</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>726</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>726</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309095</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>897</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>599741</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2789,8 +3123,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D9A250-A3A8-4E55-8086-BFDBFC8D3A0B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49128780-1A21-4319-AB3B-1D6F9BEA24EA}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2806,7 +3140,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3181,47 +3515,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,47 +3560,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3603,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,49 +3648,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
-      </c>
-      <c r="N13" s="7">
-        <v>74079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3693,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>28889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <v>57052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,102 +3738,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>823</v>
+        <v>73559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>594</v>
+        <v>57552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="N16" s="7">
-        <v>1417</v>
+        <v>131111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,49 +3836,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
-        <v>4519</v>
+        <v>74532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>3560</v>
+        <v>84444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N17" s="7">
-        <v>8079</v>
+        <v>158976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3887,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>13624</v>
+        <v>5369</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>11763</v>
+        <v>5354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N18" s="7">
-        <v>25387</v>
+        <v>10723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3938,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>120418</v>
+        <v>1144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>142727</v>
+        <v>1345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
-        <v>377</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>263145</v>
+        <v>2489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3989,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>121207</v>
+        <v>823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>83461</v>
+        <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>204668</v>
+        <v>1417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,102 +4040,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>260592</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242105</v>
+        <v>149289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>502696</v>
+        <v>304716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7">
-        <v>823</v>
+        <v>76538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>594</v>
+        <v>54072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="N22" s="7">
-        <v>1417</v>
+        <v>130609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +4144,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>4519</v>
+        <v>81753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7">
-        <v>3560</v>
+        <v>96494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="N23" s="7">
-        <v>8079</v>
+        <v>178247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,49 +4195,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>15042</v>
+        <v>9673</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H24" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>14081</v>
+        <v>8727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="M24" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>29123</v>
+        <v>18400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +4246,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>156285</v>
+        <v>3375</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>180939</v>
+        <v>2215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
-        <v>481</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>337223</v>
+        <v>5590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +4297,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>150097</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>111624</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>261720</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,55 +4348,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>252</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171339</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332847</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>221</v>
+      </c>
+      <c r="D28" s="7">
+        <v>150097</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="7">
+        <v>159</v>
+      </c>
+      <c r="I28" s="7">
+        <v>111624</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="7">
+        <v>380</v>
+      </c>
+      <c r="N28" s="7">
+        <v>261720</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>224</v>
+      </c>
+      <c r="D29" s="7">
+        <v>156285</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
+        <v>257</v>
+      </c>
+      <c r="I29" s="7">
+        <v>180939</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="7">
+        <v>481</v>
+      </c>
+      <c r="N29" s="7">
+        <v>337223</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15042</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14081</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="7">
+        <v>42</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29123</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4519</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3560</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8079</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>823</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>594</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1417</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326766</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310798</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>917</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637563</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4111,8 +4723,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4628FD17-4629-41BC-B895-6EF4B393E569}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3AEB0F-6132-4C9D-B909-4F661C1758D4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4128,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4501,49 +5113,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,49 +5158,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,49 +5203,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,49 +5248,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>89</v>
-      </c>
-      <c r="N13" s="7">
-        <v>58891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +5293,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
-      </c>
-      <c r="N14" s="7">
-        <v>92775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,102 +5338,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D16" s="7">
-        <v>891</v>
+        <v>106524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="I16" s="7">
-        <v>1653</v>
+        <v>103490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="N16" s="7">
-        <v>2545</v>
+        <v>210015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,49 +5436,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>1438</v>
+        <v>61661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>3522</v>
+        <v>66977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="N17" s="7">
-        <v>4961</v>
+        <v>128637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,49 +5487,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>12208</v>
+        <v>9233</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>15940</v>
+        <v>7412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>28148</v>
+        <v>16645</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,49 +5538,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>109183</v>
+        <v>618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>110035</v>
+        <v>1355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>219217</v>
+        <v>1973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5589,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>149616</v>
+        <v>575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>127489</v>
+        <v>1653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
-        <v>374</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>277105</v>
+        <v>2229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,102 +5640,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
-        <v>1467</v>
+        <v>87929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7">
-        <v>1653</v>
+        <v>71937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="N22" s="7">
-        <v>3120</v>
+        <v>159866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5744,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>2056</v>
+        <v>71437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>4105</v>
+        <v>78033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="N23" s="7">
-        <v>6162</v>
+        <v>149471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5795,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>18129</v>
+        <v>8896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>19498</v>
+        <v>12086</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>37627</v>
+        <v>20982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,49 +5846,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>133098</v>
+        <v>1438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>145010</v>
+        <v>2751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>278108</v>
+        <v>4189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,49 +5897,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>194453</v>
+        <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>175427</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>369880</v>
+        <v>891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,55 +5948,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>264</v>
+      </c>
+      <c r="D28" s="7">
+        <v>194453</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H28" s="7">
+        <v>245</v>
+      </c>
+      <c r="I28" s="7">
+        <v>175427</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M28" s="7">
+        <v>509</v>
+      </c>
+      <c r="N28" s="7">
+        <v>369880</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>184</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133098</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="7">
+        <v>212</v>
+      </c>
+      <c r="I29" s="7">
+        <v>145010</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M29" s="7">
+        <v>396</v>
+      </c>
+      <c r="N29" s="7">
+        <v>278108</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18129</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H30" s="7">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19498</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M30" s="7">
+        <v>55</v>
+      </c>
+      <c r="N30" s="7">
+        <v>37627</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2056</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4105</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6162</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1467</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1653</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3120</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>973</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DDC615-A224-4176-9D19-6F97F061BAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1781FAD-23EE-4209-AE6F-D2BE9919326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84CAFDF7-438C-4EDC-83D9-00BDFED4B02B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA4C60F-4748-4CB1-81A6-ED82D6474935}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -97,1021 +97,1018 @@
     <t>50,12%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>39,47%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F2FF5-62D1-4539-99DD-2189BD290FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88714675-D8AE-4F61-ADBC-1727354B027C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2344,13 +2341,13 @@
         <v>1257</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2359,13 +2356,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2374,10 +2371,10 @@
         <v>1911</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -2395,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>52</v>
@@ -2410,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>52</v>
@@ -2425,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>52</v>
@@ -2604,10 +2601,10 @@
         <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2616,13 +2613,13 @@
         <v>10468</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2631,13 +2628,13 @@
         <v>19913</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2649,13 @@
         <v>2783</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2667,13 +2664,13 @@
         <v>2289</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2682,13 +2679,13 @@
         <v>5073</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2718,13 +2715,13 @@
         <v>726</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2733,13 +2730,13 @@
         <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2804,13 @@
         <v>158272</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -2822,13 +2819,13 @@
         <v>149975</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>463</v>
@@ -2837,13 +2834,13 @@
         <v>308248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2855,13 @@
         <v>133913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -2873,13 +2870,13 @@
         <v>120368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>378</v>
@@ -2888,13 +2885,13 @@
         <v>254281</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2906,13 @@
         <v>12870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -2924,13 +2921,13 @@
         <v>16633</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2939,13 +2936,13 @@
         <v>29503</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2957,13 @@
         <v>4040</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2975,13 +2972,13 @@
         <v>2943</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2990,13 +2987,13 @@
         <v>6983</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3026,13 +3023,13 @@
         <v>726</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3041,13 +3038,13 @@
         <v>726</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49128780-1A21-4319-AB3B-1D6F9BEA24EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6701C6-7F44-4585-98E3-A8B5FC9861F9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,13 +3788,13 @@
         <v>73559</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -3806,13 +3803,13 @@
         <v>57552</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -3821,13 +3818,13 @@
         <v>131111</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3839,13 @@
         <v>74532</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -3857,13 +3854,13 @@
         <v>84444</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -3875,10 +3872,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3890,13 @@
         <v>5369</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3908,13 +3905,13 @@
         <v>5354</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -3923,13 +3920,13 @@
         <v>10723</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3941,13 @@
         <v>1144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3959,13 +3956,13 @@
         <v>1345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3974,13 +3971,13 @@
         <v>2489</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3992,13 @@
         <v>823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4010,13 +4007,13 @@
         <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4025,13 +4022,13 @@
         <v>1417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4096,13 @@
         <v>76538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -4114,13 +4111,13 @@
         <v>54072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -4129,13 +4126,13 @@
         <v>130609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4147,13 @@
         <v>81753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -4165,13 +4162,13 @@
         <v>96494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>256</v>
@@ -4180,13 +4177,13 @@
         <v>178247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4198,13 @@
         <v>9673</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -4216,13 +4213,13 @@
         <v>8727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -4231,13 +4228,13 @@
         <v>18400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4249,13 @@
         <v>3375</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4267,13 +4264,13 @@
         <v>2215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4282,13 +4279,13 @@
         <v>5590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4318,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4333,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4404,13 @@
         <v>150097</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
@@ -4422,13 +4419,13 @@
         <v>111624</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>380</v>
@@ -4437,13 +4434,13 @@
         <v>261720</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4455,13 @@
         <v>156285</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>257</v>
@@ -4473,13 +4470,13 @@
         <v>180939</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>481</v>
@@ -4488,13 +4485,13 @@
         <v>337223</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4506,13 @@
         <v>15042</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -4524,13 +4521,13 @@
         <v>14081</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -4539,13 +4536,13 @@
         <v>29123</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4557,13 @@
         <v>4519</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4575,13 +4572,13 @@
         <v>3560</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4590,10 +4587,10 @@
         <v>8079</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>242</v>
@@ -4611,13 +4608,13 @@
         <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4626,13 +4623,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4641,10 +4638,10 @@
         <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>245</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3AEB0F-6132-4C9D-B909-4F661C1758D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE912B-D667-45B9-8F21-2F704F2950A6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5391,13 +5388,13 @@
         <v>106524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -5406,13 +5403,13 @@
         <v>103490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -5421,13 +5418,13 @@
         <v>210015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5439,13 @@
         <v>61661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -5457,13 +5454,13 @@
         <v>66977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -5472,13 +5469,13 @@
         <v>128637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5490,13 @@
         <v>9233</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5508,13 +5505,13 @@
         <v>7412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5523,13 +5520,13 @@
         <v>16645</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5541,13 @@
         <v>618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5559,13 +5556,13 @@
         <v>1355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5574,13 +5571,13 @@
         <v>1973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5592,13 @@
         <v>575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5610,13 +5607,13 @@
         <v>1653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5625,13 +5622,13 @@
         <v>2229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5696,13 @@
         <v>87929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -5714,13 +5711,13 @@
         <v>71937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -5729,13 +5726,13 @@
         <v>159866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5747,13 @@
         <v>71437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -5765,13 +5762,13 @@
         <v>78033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -5780,13 +5777,13 @@
         <v>149471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5798,13 @@
         <v>8896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5816,13 +5813,13 @@
         <v>12086</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5831,13 +5828,13 @@
         <v>20982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5849,13 @@
         <v>1438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5867,13 +5864,13 @@
         <v>2751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5882,13 +5879,13 @@
         <v>4189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5900,13 @@
         <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5918,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5933,13 +5930,13 @@
         <v>891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6004,13 @@
         <v>194453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -6022,13 +6019,13 @@
         <v>175427</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -6037,13 +6034,13 @@
         <v>369880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6055,13 @@
         <v>133098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>212</v>
@@ -6073,13 +6070,13 @@
         <v>145010</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>396</v>
@@ -6088,13 +6085,13 @@
         <v>278108</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>336</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6106,13 @@
         <v>18129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -6124,13 +6121,13 @@
         <v>19498</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -6139,13 +6136,13 @@
         <v>37627</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6157,13 @@
         <v>2056</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6175,13 +6172,13 @@
         <v>4105</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6190,13 +6187,13 @@
         <v>6162</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6208,13 @@
         <v>1467</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6229,7 +6226,7 @@
         <v>353</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>354</v>
@@ -6241,13 +6238,13 @@
         <v>3120</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6300,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1781FAD-23EE-4209-AE6F-D2BE9919326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE40D49-13EA-4904-8CCC-C14A5DCC339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA4C60F-4748-4CB1-81A6-ED82D6474935}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AA24DAA6-B48D-4846-AAC7-964457F4EA45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="365">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1021 +94,1045 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>0,42%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,09%</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88714675-D8AE-4F61-ADBC-1727354B027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B328CEF-61CF-45C5-BD4B-5BB49D2EEA12}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2182,10 +2206,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>61889</v>
+        <v>60804</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2197,10 +2221,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>60804</v>
+        <v>61889</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2233,10 +2257,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>56910</v>
+        <v>44088</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2248,10 +2272,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I17" s="7">
-        <v>44088</v>
+        <v>56910</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2308,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>3425</v>
+        <v>6166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2299,10 +2323,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>6166</v>
+        <v>3425</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2335,34 +2359,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>654</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1257</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>654</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2371,13 +2395,13 @@
         <v>1911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,28 +2416,28 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2422,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>55</v>
@@ -2437,25 +2461,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2490,10 +2514,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D22" s="7">
-        <v>96383</v>
+        <v>89172</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>58</v>
@@ -2505,10 +2529,10 @@
         <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I22" s="7">
-        <v>89172</v>
+        <v>96383</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>61</v>
@@ -2541,10 +2565,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7">
-        <v>77003</v>
+        <v>76280</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>67</v>
@@ -2556,10 +2580,10 @@
         <v>69</v>
       </c>
       <c r="H23" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I23" s="7">
-        <v>76280</v>
+        <v>77003</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>70</v>
@@ -2592,34 +2616,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>9445</v>
+        <v>10468</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>10468</v>
+        <v>9445</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2628,13 +2652,13 @@
         <v>19913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,34 +2667,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2289</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2783</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2289</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2679,13 +2703,13 @@
         <v>5073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,34 +2718,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2730,13 +2754,13 @@
         <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,25 +2769,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>279</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>185614</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2798,34 +2822,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>223</v>
+      </c>
+      <c r="D28" s="7">
+        <v>149975</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="7">
         <v>240</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>158272</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="7">
-        <v>223</v>
-      </c>
-      <c r="I28" s="7">
-        <v>149975</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>463</v>
@@ -2834,13 +2858,13 @@
         <v>308248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,34 +2873,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>179</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120368</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="7">
         <v>199</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>133913</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="7">
-        <v>179</v>
-      </c>
-      <c r="I29" s="7">
-        <v>120368</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>378</v>
@@ -2885,13 +2909,13 @@
         <v>254281</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,34 +2924,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>16633</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="7">
         <v>20</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>12870</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="7">
-        <v>25</v>
-      </c>
-      <c r="I30" s="7">
-        <v>16633</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2936,13 +2960,13 @@
         <v>29503</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,34 +2975,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2943</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4040</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2943</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2987,13 +3011,13 @@
         <v>6983</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,34 +3026,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3038,13 +3062,13 @@
         <v>726</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,25 +3077,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>465</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309095</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -3100,7 +3124,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6701C6-7F44-4585-98E3-A8B5FC9861F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5219171-A831-4AAE-8007-89D26022B1EB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,34 +3806,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7">
+        <v>57552</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="7">
         <v>107</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>73559</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="7">
-        <v>83</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57552</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -3818,13 +3842,13 @@
         <v>131111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,34 +3857,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>120</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84444</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="7">
         <v>105</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>74532</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="7">
-        <v>120</v>
-      </c>
-      <c r="I17" s="7">
-        <v>84444</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -3872,10 +3896,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3908,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5354</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5369</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5354</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -3920,13 +3944,13 @@
         <v>10723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,31 +3962,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1144</v>
+        <v>1345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1345</v>
+        <v>1144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3971,13 +3995,13 @@
         <v>2489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,31 +4013,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>823</v>
+        <v>594</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>594</v>
+        <v>823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4022,13 +4046,13 @@
         <v>1417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,25 +4061,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149289</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149289</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4090,34 +4114,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54072</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7">
         <v>114</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>76538</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="7">
-        <v>76</v>
-      </c>
-      <c r="I22" s="7">
-        <v>54072</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -4126,13 +4150,13 @@
         <v>130609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,34 +4165,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>137</v>
+      </c>
+      <c r="D23" s="7">
+        <v>96494</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="7">
         <v>119</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>81753</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="7">
-        <v>137</v>
-      </c>
-      <c r="I23" s="7">
-        <v>96494</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>256</v>
@@ -4177,13 +4201,13 @@
         <v>178247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4216,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8727</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9673</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8727</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -4228,13 +4252,13 @@
         <v>18400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4267,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2215</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3375</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2215</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4279,13 +4303,13 @@
         <v>5590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4315,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4330,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,25 +4369,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>252</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>171339</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161508</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4398,34 +4422,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>159</v>
+      </c>
+      <c r="D28" s="7">
+        <v>111624</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="7">
         <v>221</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>150097</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="7">
-        <v>159</v>
-      </c>
-      <c r="I28" s="7">
-        <v>111624</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>380</v>
@@ -4434,13 +4458,13 @@
         <v>261720</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,34 +4473,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>257</v>
+      </c>
+      <c r="D29" s="7">
+        <v>180939</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
         <v>224</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>156285</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="7">
-        <v>257</v>
-      </c>
-      <c r="I29" s="7">
-        <v>180939</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>481</v>
@@ -4485,13 +4509,13 @@
         <v>337223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,34 +4524,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14081</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
         <v>22</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>15042</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="7">
-        <v>20</v>
-      </c>
-      <c r="I30" s="7">
-        <v>14081</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -4536,13 +4560,13 @@
         <v>29123</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4575,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3560</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4519</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3560</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4587,13 +4611,13 @@
         <v>8079</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,31 +4629,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>823</v>
+        <v>594</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>594</v>
+        <v>823</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4638,13 +4662,13 @@
         <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,25 +4677,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326766</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310798</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -4700,7 +4724,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE912B-D667-45B9-8F21-2F704F2950A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA6B65-5413-4ED4-9EC4-10D5DC2FB60D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5382,34 +5406,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>146</v>
+      </c>
+      <c r="D16" s="7">
+        <v>103490</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="7">
         <v>148</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>106524</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="7">
-        <v>146</v>
-      </c>
-      <c r="I16" s="7">
-        <v>103490</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -5418,13 +5442,13 @@
         <v>210015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,34 +5457,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>66977</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="7">
         <v>86</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>61661</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>66977</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -5469,13 +5493,13 @@
         <v>128637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,34 +5508,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7412</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9233</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7412</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5520,13 +5544,13 @@
         <v>16645</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +5559,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1355</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>618</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1355</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5571,13 +5595,13 @@
         <v>1973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5610,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1653</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>575</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1653</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5622,13 +5646,13 @@
         <v>2229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,25 +5661,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -5690,34 +5714,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>99</v>
+      </c>
+      <c r="D22" s="7">
+        <v>71937</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="7">
         <v>116</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>87929</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="7">
-        <v>99</v>
-      </c>
-      <c r="I22" s="7">
-        <v>71937</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -5726,13 +5750,13 @@
         <v>159866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,34 +5765,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7">
+        <v>78033</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="7">
         <v>98</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>71437</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="7">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7">
-        <v>78033</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -5777,13 +5801,13 @@
         <v>149471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,34 +5816,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12086</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>8896</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H24" s="7">
-        <v>18</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12086</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5828,13 +5852,13 @@
         <v>20982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5867,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2751</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1438</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2751</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5879,13 +5903,13 @@
         <v>4189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,34 +5918,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>891</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5930,13 +5954,13 @@
         <v>891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,25 +5969,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -5998,34 +6022,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>245</v>
+      </c>
+      <c r="D28" s="7">
+        <v>175427</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="7">
         <v>264</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>194453</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H28" s="7">
-        <v>245</v>
-      </c>
-      <c r="I28" s="7">
-        <v>175427</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -6034,13 +6058,13 @@
         <v>369880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,34 +6073,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>212</v>
+      </c>
+      <c r="D29" s="7">
+        <v>145010</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="7">
         <v>184</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>133098</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="7">
-        <v>212</v>
-      </c>
-      <c r="I29" s="7">
-        <v>145010</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M29" s="7">
         <v>396</v>
@@ -6085,13 +6109,13 @@
         <v>278108</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,34 +6124,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19498</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="7">
         <v>27</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>18129</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19498</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -6136,13 +6160,13 @@
         <v>37627</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6175,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4105</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>2056</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4105</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6187,13 +6211,13 @@
         <v>6162</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,31 +6229,31 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1467</v>
+        <v>1653</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1653</v>
+        <v>1467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6238,13 +6262,13 @@
         <v>3120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>123</v>
+        <v>354</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,25 +6277,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -6300,7 +6324,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
